--- a/biology/Botanique/Cedrela_fissilis/Cedrela_fissilis.xlsx
+++ b/biology/Botanique/Cedrela_fissilis/Cedrela_fissilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cedrela fissilis ou cèdre missionnaire ou ygary (Cedrela tubiflora) est une espèce d'arbre de la famille des Meliaceae. Il est originaire des régions tropicales et subtropicales d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On l'appelle cedro real au Costa Rica.
 Ygary, ygaí, cedro colorado</t>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Amérique Centrale et d'Amérique du Sud. C'est un arbre des forêts tropicales et subtropicales humides. Il ne résiste ni aux gelées ni aux sécheresses.
-Le genre Cedrela comprend 7 espèces d'Amérique tropicale, dont cinq sont endémiques à l'Argentine.[1]
+Le genre Cedrela comprend 7 espèces d'Amérique tropicale, dont cinq sont endémiques à l'Argentine.
 </t>
         </is>
       </c>
